--- a/src/WebMarket/WebMarket/App_Data/Ups.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Ups.xlsx
@@ -187,9 +187,6 @@
     <t>Photo</t>
   </si>
   <si>
-    <t>IsAvailable</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>UPS-10000LE LOW</t>
+  </si>
+  <si>
+    <t>Availability</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1933,7 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,16 +1943,16 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
         <v>56</v>
@@ -1991,10 +1991,10 @@
         <v>45</v>
       </c>
       <c r="Q1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R1" t="s">
         <v>61</v>
-      </c>
-      <c r="R1" t="s">
-        <v>62</v>
       </c>
       <c r="S1" t="s">
         <v>44</v>
@@ -2019,8 +2019,8 @@
       <c r="B2">
         <v>41</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>39</v>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S2">
         <v>0.35</v>
@@ -2063,8 +2063,8 @@
       <c r="B3">
         <v>46</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -2082,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S3">
         <v>0.45500000000000002</v>
@@ -2107,8 +2107,8 @@
       <c r="B4">
         <v>52</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -2126,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="R4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S4">
         <v>0.56000000000000005</v>
@@ -2151,8 +2151,8 @@
       <c r="B5">
         <v>54</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -2173,7 +2173,7 @@
         <v>6.2</v>
       </c>
       <c r="R5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S5">
         <v>0.4</v>
@@ -2198,8 +2198,8 @@
       <c r="B6">
         <v>70</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -2220,7 +2220,7 @@
         <v>8.1</v>
       </c>
       <c r="R6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S6">
         <v>0.5</v>
@@ -2245,8 +2245,8 @@
       <c r="B7">
         <v>85</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
@@ -2267,7 +2267,7 @@
         <v>10.3</v>
       </c>
       <c r="R7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S7">
         <v>0.6</v>
@@ -2292,8 +2292,8 @@
       <c r="B8">
         <v>87.5</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -2317,7 +2317,7 @@
         <v>6.6</v>
       </c>
       <c r="R8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S8">
         <v>0.3</v>
@@ -2336,8 +2336,8 @@
       <c r="B9">
         <v>87.5</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>32</v>
@@ -2361,7 +2361,7 @@
         <v>6.6</v>
       </c>
       <c r="R9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S9">
         <v>0.3</v>
@@ -2380,8 +2380,8 @@
       <c r="B10">
         <v>90</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>31</v>
@@ -2405,7 +2405,7 @@
         <v>6.6</v>
       </c>
       <c r="R10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S10">
         <v>0.3</v>
@@ -2424,8 +2424,8 @@
       <c r="B11">
         <v>105</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -2449,7 +2449,7 @@
         <v>6.6</v>
       </c>
       <c r="R11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S11">
         <v>0.56000000000000005</v>
@@ -2468,8 +2468,8 @@
       <c r="B12">
         <v>94</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -2487,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="R12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S12">
         <v>0.3</v>
@@ -2506,8 +2506,8 @@
       <c r="B13">
         <v>130</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>27</v>
@@ -2531,7 +2531,7 @@
         <v>6.6</v>
       </c>
       <c r="R13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S13">
         <v>0.6</v>
@@ -2550,8 +2550,8 @@
       <c r="B14">
         <v>125</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -2575,7 +2575,7 @@
         <v>9.6</v>
       </c>
       <c r="R14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S14">
         <v>0.6</v>
@@ -2594,8 +2594,8 @@
       <c r="B15">
         <v>125</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -2619,7 +2619,7 @@
         <v>9.6</v>
       </c>
       <c r="R15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S15">
         <v>0.6</v>
@@ -2638,8 +2638,8 @@
       <c r="B16">
         <v>200</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -2663,7 +2663,7 @@
         <v>9.6</v>
       </c>
       <c r="R16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S16">
         <v>1.05</v>
@@ -2682,8 +2682,8 @@
       <c r="B17">
         <v>180</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -2707,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="R17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S17">
         <v>1.05</v>
@@ -2726,8 +2726,8 @@
       <c r="B18">
         <v>320</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -2751,7 +2751,7 @@
         <v>9</v>
       </c>
       <c r="R18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S18">
         <v>1.4</v>
@@ -2770,8 +2770,8 @@
       <c r="B19">
         <v>320</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -2795,7 +2795,7 @@
         <v>23</v>
       </c>
       <c r="R19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S19">
         <v>1.4</v>
@@ -2814,8 +2814,8 @@
       <c r="B20">
         <v>400</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -2839,7 +2839,7 @@
         <v>27.6</v>
       </c>
       <c r="R20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S20">
         <v>1.8</v>
@@ -2858,8 +2858,8 @@
       <c r="B21">
         <v>600</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -2883,7 +2883,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="R21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -2902,8 +2902,8 @@
       <c r="B22">
         <v>900</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -2927,7 +2927,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="R22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2946,8 +2946,8 @@
       <c r="B23">
         <v>225</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -2987,8 +2987,8 @@
       <c r="B24">
         <v>210</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -3028,8 +3028,8 @@
       <c r="B25">
         <v>360</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -3069,8 +3069,8 @@
       <c r="B26">
         <v>400</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -3110,8 +3110,8 @@
       <c r="B27">
         <v>950</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -3151,8 +3151,8 @@
       <c r="B28">
         <v>1500</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -3192,11 +3192,11 @@
       <c r="B29">
         <v>2000</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
         <v>1</v>
@@ -3233,8 +3233,8 @@
       <c r="B30">
         <v>1900</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>3</v>
@@ -3274,8 +3274,8 @@
       <c r="B31">
         <v>3000</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -3310,13 +3310,16 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>1900</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3325,16 +3328,16 @@
         <v>60</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M32">
         <v>2.8</v>
       </c>
       <c r="Q32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/WebMarket/WebMarket/App_Data/Ups.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Ups.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="70">
   <si>
     <t>260 x 570 x 720</t>
   </si>
@@ -175,12 +175,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>IsNew</t>
-  </si>
-  <si>
-    <t>IsTopBuyed</t>
-  </si>
-  <si>
     <t>Producer</t>
   </si>
   <si>
@@ -227,6 +221,9 @@
   </si>
   <si>
     <t>Availability</t>
+  </si>
+  <si>
+    <t>DisplayClass</t>
   </si>
 </sst>
 </file>
@@ -1930,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,78 +1938,75 @@
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>60</v>
-      </c>
       <c r="R1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="S1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2028,35 +2022,35 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="R2" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2">
+        <v>0.35</v>
       </c>
       <c r="S2">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -2072,35 +2066,35 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3">
+        <v>0.45500000000000002</v>
       </c>
       <c r="S3">
-        <v>0.45500000000000002</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V3">
-        <v>7</v>
-      </c>
-      <c r="W3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2116,35 +2110,35 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4">
+        <v>0.56000000000000005</v>
       </c>
       <c r="S4">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U4">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2160,38 +2154,38 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J5">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="L5">
         <v>6.2</v>
       </c>
-      <c r="R5" t="s">
-        <v>62</v>
+      <c r="Q5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5">
+        <v>0.4</v>
       </c>
       <c r="S5">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U5">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>7</v>
-      </c>
-      <c r="W5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2207,38 +2201,38 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J6">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>8.1</v>
       </c>
-      <c r="R6" t="s">
-        <v>62</v>
+      <c r="Q6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
       </c>
       <c r="S6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>7</v>
-      </c>
-      <c r="W6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2254,38 +2248,38 @@
       <c r="F7" t="s">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J7">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="L7">
         <v>10.3</v>
       </c>
-      <c r="R7" t="s">
-        <v>62</v>
+      <c r="Q7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R7">
+        <v>0.6</v>
       </c>
       <c r="S7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="U7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V7">
-        <v>7</v>
-      </c>
-      <c r="W7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2301,35 +2295,35 @@
       <c r="F8" t="s">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="I8">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J8">
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <v>6.6</v>
       </c>
-      <c r="R8" t="s">
-        <v>63</v>
+      <c r="Q8" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8">
+        <v>0.3</v>
       </c>
       <c r="S8">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2345,35 +2339,35 @@
       <c r="F9" t="s">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="I9">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J9">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="M9">
+      <c r="L9">
         <v>6.6</v>
       </c>
-      <c r="R9" t="s">
-        <v>63</v>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9">
+        <v>0.3</v>
       </c>
       <c r="S9">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2389,35 +2383,35 @@
       <c r="F10" t="s">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
       <c r="I10">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
         <v>30</v>
       </c>
-      <c r="M10">
+      <c r="L10">
         <v>6.6</v>
       </c>
-      <c r="R10" t="s">
-        <v>63</v>
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10">
+        <v>0.3</v>
       </c>
       <c r="S10">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2433,35 +2427,35 @@
       <c r="F11" t="s">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="I11">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J11">
-        <v>24</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
         <v>26</v>
       </c>
-      <c r="M11">
+      <c r="L11">
         <v>6.6</v>
       </c>
-      <c r="R11" t="s">
-        <v>63</v>
+      <c r="Q11" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11">
+        <v>0.56000000000000005</v>
       </c>
       <c r="S11">
-        <v>0.56000000000000005</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2477,29 +2471,29 @@
       <c r="F12" t="s">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="I12">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J12">
-        <v>24</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12">
+        <v>0.3</v>
       </c>
       <c r="S12">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2515,35 +2509,35 @@
       <c r="F13" t="s">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
       <c r="I13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J13">
-        <v>24</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
         <v>26</v>
       </c>
-      <c r="M13">
+      <c r="L13">
         <v>6.6</v>
       </c>
-      <c r="R13" t="s">
-        <v>63</v>
+      <c r="Q13" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13">
+        <v>0.6</v>
       </c>
       <c r="S13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2559,35 +2553,35 @@
       <c r="F14" t="s">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="I14">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J14">
-        <v>24</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="M14">
+      <c r="L14">
         <v>9.6</v>
       </c>
-      <c r="R14" t="s">
-        <v>63</v>
+      <c r="Q14" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14">
+        <v>0.6</v>
       </c>
       <c r="S14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2603,35 +2597,35 @@
       <c r="F15" t="s">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="I15">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J15">
-        <v>24</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
         <v>23</v>
       </c>
-      <c r="M15">
+      <c r="L15">
         <v>9.6</v>
       </c>
-      <c r="R15" t="s">
-        <v>63</v>
+      <c r="Q15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15">
+        <v>0.6</v>
       </c>
       <c r="S15">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2647,35 +2641,35 @@
       <c r="F16" t="s">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J16">
-        <v>24</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="M16">
+      <c r="L16">
         <v>9.6</v>
       </c>
-      <c r="R16" t="s">
-        <v>63</v>
+      <c r="Q16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16">
+        <v>1.05</v>
       </c>
       <c r="S16">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2691,35 +2685,35 @@
       <c r="F17" t="s">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
       <c r="I17">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J17">
-        <v>24</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
         <v>18</v>
       </c>
-      <c r="M17">
+      <c r="L17">
         <v>9</v>
       </c>
-      <c r="R17" t="s">
-        <v>63</v>
+      <c r="Q17" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17">
+        <v>1.05</v>
       </c>
       <c r="S17">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2735,35 +2729,35 @@
       <c r="F18" t="s">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
       <c r="I18">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J18">
-        <v>24</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
         <v>18</v>
       </c>
-      <c r="M18">
+      <c r="L18">
         <v>9</v>
       </c>
-      <c r="R18" t="s">
-        <v>63</v>
+      <c r="Q18" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18">
+        <v>1.4</v>
       </c>
       <c r="S18">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2779,35 +2773,35 @@
       <c r="F19" t="s">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
       <c r="I19">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J19">
-        <v>24</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
         <v>13</v>
       </c>
-      <c r="M19">
+      <c r="L19">
         <v>23</v>
       </c>
-      <c r="R19" t="s">
-        <v>63</v>
+      <c r="Q19" t="s">
+        <v>61</v>
+      </c>
+      <c r="R19">
+        <v>1.4</v>
       </c>
       <c r="S19">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2823,35 +2817,35 @@
       <c r="F20" t="s">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
       <c r="I20">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J20">
-        <v>24</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
         <v>13</v>
       </c>
-      <c r="M20">
+      <c r="L20">
         <v>27.6</v>
       </c>
-      <c r="R20" t="s">
-        <v>63</v>
+      <c r="Q20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20">
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2867,35 +2861,35 @@
       <c r="F21" t="s">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
       <c r="I21">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J21">
-        <v>24</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
         <v>13</v>
       </c>
-      <c r="M21">
+      <c r="L21">
         <v>33.700000000000003</v>
       </c>
-      <c r="R21" t="s">
-        <v>63</v>
+      <c r="Q21" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2911,35 +2905,35 @@
       <c r="F22" t="s">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
       <c r="I22">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J22">
-        <v>24</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
         <v>13</v>
       </c>
-      <c r="M22">
+      <c r="L22">
         <v>33.700000000000003</v>
       </c>
-      <c r="R22" t="s">
-        <v>63</v>
+      <c r="Q22" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2955,32 +2949,32 @@
       <c r="F23" t="s">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
       <c r="I23">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J23">
-        <v>24</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
         <v>10</v>
       </c>
-      <c r="M23">
-        <v>5</v>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>0.6</v>
       </c>
       <c r="S23">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -2996,32 +2990,32 @@
       <c r="F24" t="s">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
       <c r="I24">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J24">
-        <v>24</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
         <v>10</v>
       </c>
-      <c r="M24">
-        <v>5</v>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="R24">
+        <v>0.6</v>
       </c>
       <c r="S24">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3037,32 +3031,32 @@
       <c r="F25" t="s">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
       <c r="I25">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J25">
-        <v>24</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25" t="s">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
         <v>7</v>
       </c>
-      <c r="M25">
+      <c r="L25">
         <v>13.5</v>
       </c>
+      <c r="R25">
+        <v>1.4</v>
+      </c>
       <c r="S25">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -3078,32 +3072,32 @@
       <c r="F26" t="s">
         <v>1</v>
       </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
       <c r="I26">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J26">
-        <v>24</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
         <v>7</v>
       </c>
-      <c r="M26">
+      <c r="L26">
         <v>16</v>
       </c>
+      <c r="R26">
+        <v>2.1</v>
+      </c>
       <c r="S26">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -3119,32 +3113,32 @@
       <c r="F27" t="s">
         <v>1</v>
       </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
       <c r="I27">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J27">
-        <v>24</v>
-      </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="L27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>35</v>
       </c>
+      <c r="R27">
+        <v>4.2</v>
+      </c>
       <c r="S27">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27">
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -3160,32 +3154,32 @@
       <c r="F28" t="s">
         <v>1</v>
       </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
       <c r="I28">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J28">
-        <v>24</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28" t="s">
-        <v>0</v>
-      </c>
-      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>38</v>
       </c>
+      <c r="R28">
+        <v>7</v>
+      </c>
       <c r="S28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>1</v>
-      </c>
-      <c r="U28">
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3196,37 +3190,37 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
         <v>1</v>
       </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
       <c r="I29">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J29">
-        <v>24</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-      <c r="L29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29">
         <v>38</v>
       </c>
+      <c r="R29">
+        <v>7</v>
+      </c>
       <c r="S29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -3242,32 +3236,32 @@
       <c r="F30" t="s">
         <v>1</v>
       </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
       <c r="I30">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J30">
-        <v>24</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30">
         <v>39</v>
       </c>
+      <c r="R30">
+        <v>7</v>
+      </c>
       <c r="S30">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>3</v>
-      </c>
-      <c r="U30">
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3283,34 +3277,34 @@
       <c r="F31" t="s">
         <v>1</v>
       </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
       <c r="I31">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J31">
-        <v>24</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31">
         <v>55</v>
       </c>
+      <c r="R31">
+        <v>14</v>
+      </c>
       <c r="S31">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>3</v>
-      </c>
-      <c r="U31">
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B32">
         <v>1900</v>
@@ -3319,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="K32" t="s">
         <v>65</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>60</v>
-      </c>
-      <c r="L32" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32">
+      <c r="L32">
         <v>2.8</v>
       </c>
+      <c r="P32" t="s">
+        <v>66</v>
+      </c>
       <c r="Q32" t="s">
-        <v>68</v>
-      </c>
-      <c r="R32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/src/WebMarket/WebMarket/App_Data/Ups.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Ups.xlsx
@@ -1,20 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="30" yWindow="330" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Ups" sheetId="1" r:id="rId1"/>
+    <sheet name="metadata" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="Availability">metadata!$C$2:$C$30</definedName>
+    <definedName name="AvailabilityList" localSheetId="1">metadata!$C$2:$C$4</definedName>
+    <definedName name="DisplayClass">metadata!$B$2:$B$30</definedName>
+    <definedName name="DisplayClassList" localSheetId="1">metadata!$B$2:$B$6</definedName>
+    <definedName name="Producers">metadata!$A$2:$A$31</definedName>
+    <definedName name="ProducersList" localSheetId="1">metadata!$A$2:$A$10</definedName>
+    <definedName name="Type">metadata!$D$2:$D$30</definedName>
+  </definedNames>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Availability" type="6" refreshedVersion="4" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="65001" sourceFile="C:\Users\vas\Documents\GitHub\3e\src\WebMarket\WebMarket\App_Data\csv\Availability.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="DisplayClass" type="6" refreshedVersion="4" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="65001" sourceFile="C:\Users\vas\Documents\GitHub\3e\src\WebMarket\WebMarket\App_Data\csv\DisplayClass.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="Producers" type="6" refreshedVersion="4" background="1" refreshOnLoad="1" saveData="1">
+    <textPr prompt="0" codePage="65001" sourceFile="C:\Users\vas\Documents\GitHub\3e\src\WebMarket\WebMarket\App_Data\csv\Producers.csv">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
   <si>
     <t>260 x 570 x 720</t>
   </si>
@@ -28,9 +64,6 @@
     <t>UPS-10000L3</t>
   </si>
   <si>
-    <t>UPS-10000LE НЧ</t>
-  </si>
-  <si>
     <t>UPS-10000LE</t>
   </si>
   <si>
@@ -202,9 +235,6 @@
     <t>145-270 В</t>
   </si>
   <si>
-    <t>ИБП-300 (off-line)</t>
-  </si>
-  <si>
     <t>Volter</t>
   </si>
   <si>
@@ -224,13 +254,205 @@
   </si>
   <si>
     <t>DisplayClass</t>
+  </si>
+  <si>
+    <t>125х80х43</t>
+  </si>
+  <si>
+    <t>100-260В</t>
+  </si>
+  <si>
+    <t>140х80х45</t>
+  </si>
+  <si>
+    <t>203х163х741.2</t>
+  </si>
+  <si>
+    <t>265х195х75</t>
+  </si>
+  <si>
+    <t>129х97х38</t>
+  </si>
+  <si>
+    <t>Producers</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>NotAvailable</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>TopBuyed</t>
+  </si>
+  <si>
+    <t>OnDemand</t>
+  </si>
+  <si>
+    <t>V-protector</t>
+  </si>
+  <si>
+    <t>OurChoise</t>
+  </si>
+  <si>
+    <t>Энергохит</t>
+  </si>
+  <si>
+    <t>BestPrice</t>
+  </si>
+  <si>
+    <t>B.B. Battery</t>
+  </si>
+  <si>
+    <t>Вольт</t>
+  </si>
+  <si>
+    <t>Luxeon PS1203A 3А 12В 36Вт</t>
+  </si>
+  <si>
+    <t>Luxeon PS1205A 5А 12В 60Вт</t>
+  </si>
+  <si>
+    <t>Luxeon S1203B 3А 12В 36В</t>
+  </si>
+  <si>
+    <t>Luxeon PS1205B 5А 12В 60Вт</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-500A</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-650A</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-800A</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-650D</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-800D</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-1000D</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-500ZY</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-500ZX</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-500L</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-800L</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-500LU</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-1000L</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-1000ZY</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-1000ZX</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-1500ZY</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-1500L</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-2000L</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-2000ZX</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-3000ZX</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-5000ZX</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-8000ZX</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-1000LE</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-1000HD</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-2000LE</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-3000LE</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-6000LE</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-10000LE</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-10000LE НЧ</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-10000L3</t>
+  </si>
+  <si>
+    <t>Luxeon UPS-20000L3</t>
+  </si>
+  <si>
+    <t>Volter ИБП-300 (off-line)</t>
+  </si>
+  <si>
+    <t>Luxeon PSC 6012 5A 12В 60Вт</t>
+  </si>
+  <si>
+    <t>Luxeon PSC 3512 3A 12В 34Вт</t>
+  </si>
+  <si>
+    <t>Luxeon PSC 12012 10A 12В 117Вт</t>
+  </si>
+  <si>
+    <t>Volter ИБП-300</t>
+  </si>
+  <si>
+    <t>Vimar</t>
+  </si>
+  <si>
+    <t>Вольт MAX-300</t>
+  </si>
+  <si>
+    <t>269х158х113</t>
+  </si>
+  <si>
+    <t>140-275В</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +460,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,14 +518,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="常规_Sheet1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -281,13 +552,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -349,13 +620,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1628775</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>904875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -417,13 +688,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -485,13 +756,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1152525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -553,13 +824,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1123950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -621,13 +892,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1228725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -689,13 +960,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1228725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -757,13 +1028,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1228725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -825,13 +1096,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -893,13 +1164,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>1228725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -961,13 +1232,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1029,13 +1300,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1628775</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>904875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1097,13 +1368,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1647825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>914400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1165,13 +1436,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1152525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1233,13 +1504,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1123950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1301,13 +1572,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>1228725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1369,13 +1640,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>1228725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1437,13 +1708,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>1228725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1505,13 +1776,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>1190625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1573,13 +1844,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>1228725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1638,6 +1909,18 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DisplayClassList" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ProducersList" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="AvailabilityList" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1927,1415 +2210,1977 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="3">
+        <v>25.2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C3" s="3">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="3">
+        <v>31.2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="3">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="3">
+        <v>19.8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1</v>
+      </c>
+      <c r="T8" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2">
+        <v>49.199999999999996</v>
+      </c>
+      <c r="C9" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>12</v>
+      </c>
+      <c r="U9" s="2">
+        <v>7</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2">
+        <v>55.199999999999996</v>
+      </c>
+      <c r="C10" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>12</v>
+      </c>
+      <c r="U10" s="2">
+        <v>7</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2">
+        <v>62.4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>12</v>
+      </c>
+      <c r="U11" s="2">
+        <v>7</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="2">
+        <v>64.8</v>
+      </c>
+      <c r="C12" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>12</v>
+      </c>
+      <c r="U12" s="2">
+        <v>7</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="2">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="S13" s="2">
+        <v>1</v>
+      </c>
+      <c r="T13" s="2">
+        <v>12</v>
+      </c>
+      <c r="U13" s="2">
+        <v>7</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="2" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="2">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" s="2">
+        <v>12</v>
+      </c>
+      <c r="U14" s="2">
+        <v>7</v>
+      </c>
+      <c r="V14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="4">
+        <v>105</v>
+      </c>
+      <c r="C15" s="4">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>24</v>
+      </c>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S15" s="4">
+        <v>1</v>
+      </c>
+      <c r="T15" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="4">
+        <v>105</v>
+      </c>
+      <c r="C16" s="4">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>24</v>
+      </c>
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="4">
+        <v>108</v>
+      </c>
+      <c r="C17" s="4">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>24</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S17" s="4">
+        <v>1</v>
+      </c>
+      <c r="T17" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="4">
+        <v>126</v>
+      </c>
+      <c r="C18" s="4">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>24</v>
+      </c>
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S18" s="4">
+        <v>1</v>
+      </c>
+      <c r="T18" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="4">
+        <v>112.8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>24</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S19" s="4">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="4">
+        <v>156</v>
+      </c>
+      <c r="C20" s="4">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>24</v>
+      </c>
+      <c r="J20" s="4">
+        <v>5</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="4">
+        <v>150</v>
+      </c>
+      <c r="C21" s="4">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>24</v>
+      </c>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="S21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4">
+        <v>150</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>24</v>
+      </c>
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="S22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="4">
+        <v>240</v>
+      </c>
+      <c r="C23" s="4">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>24</v>
+      </c>
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R23" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="4">
+        <v>216</v>
+      </c>
+      <c r="C24" s="4">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>24</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="S24" s="4">
+        <v>1</v>
+      </c>
+      <c r="T24" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="4">
+        <v>384</v>
+      </c>
+      <c r="C25" s="4">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>24</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R25" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="S25" s="4">
+        <v>1</v>
+      </c>
+      <c r="T25" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="4">
+        <v>384</v>
+      </c>
+      <c r="C26" s="4">
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>24</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1</v>
+      </c>
+      <c r="T26" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="4">
+        <v>480</v>
+      </c>
+      <c r="C27" s="4">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>24</v>
+      </c>
+      <c r="J27" s="4">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R27" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="S27" s="4">
+        <v>1</v>
+      </c>
+      <c r="T27" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="4">
+        <v>720</v>
+      </c>
+      <c r="C28" s="4">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>24</v>
+      </c>
+      <c r="J28" s="4">
+        <v>5</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R28" s="4">
+        <v>3</v>
+      </c>
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+      <c r="T28" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="4" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1080</v>
+      </c>
+      <c r="C29" s="4">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>24</v>
+      </c>
+      <c r="J29" s="4">
+        <v>5</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R29" s="4">
+        <v>5</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+      <c r="T29" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="5">
+        <v>270</v>
+      </c>
+      <c r="C30" s="5">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2</v>
+      </c>
+      <c r="I30" s="5">
+        <v>24</v>
+      </c>
+      <c r="J30" s="5">
+        <v>5</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="5">
+        <v>5</v>
+      </c>
+      <c r="R30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S30" s="5">
+        <v>1</v>
+      </c>
+      <c r="T30" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="5">
+        <v>252</v>
+      </c>
+      <c r="C31" s="5">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2</v>
+      </c>
+      <c r="I31" s="5">
+        <v>24</v>
+      </c>
+      <c r="J31" s="5">
+        <v>5</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="5">
+        <v>5</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="S31" s="5">
+        <v>1</v>
+      </c>
+      <c r="T31" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="5">
+        <v>432</v>
+      </c>
+      <c r="C32" s="5">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>24</v>
+      </c>
+      <c r="J32" s="5">
+        <v>5</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="5">
+        <v>13.5</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="S32" s="5">
+        <v>1</v>
+      </c>
+      <c r="T32" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="5">
+        <v>480</v>
+      </c>
+      <c r="C33" s="5">
+        <v>14</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2</v>
+      </c>
+      <c r="I33" s="5">
+        <v>24</v>
+      </c>
+      <c r="J33" s="5">
+        <v>5</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="5">
+        <v>16</v>
+      </c>
+      <c r="R33" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="S33" s="5">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1140</v>
+      </c>
+      <c r="C34" s="5">
+        <v>14</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
+        <v>2</v>
+      </c>
+      <c r="I34" s="5">
+        <v>24</v>
+      </c>
+      <c r="J34" s="5">
+        <v>5</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>35</v>
+      </c>
+      <c r="R34" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="S34" s="5">
+        <v>1</v>
+      </c>
+      <c r="T34" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C35" s="5">
+        <v>14</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2</v>
+      </c>
+      <c r="I35" s="5">
+        <v>24</v>
+      </c>
+      <c r="J35" s="5">
+        <v>5</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>38</v>
+      </c>
+      <c r="R35" s="5">
+        <v>7</v>
+      </c>
+      <c r="S35" s="5">
+        <v>1</v>
+      </c>
+      <c r="T35" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2400</v>
+      </c>
+      <c r="C36" s="5">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2</v>
+      </c>
+      <c r="I36" s="5">
+        <v>24</v>
+      </c>
+      <c r="J36" s="5">
+        <v>5</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>38</v>
+      </c>
+      <c r="R36" s="5">
+        <v>7</v>
+      </c>
+      <c r="S36" s="5">
+        <v>1</v>
+      </c>
+      <c r="T36" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2280</v>
+      </c>
+      <c r="C37" s="5">
+        <v>14</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2</v>
+      </c>
+      <c r="I37" s="5">
+        <v>24</v>
+      </c>
+      <c r="J37" s="5">
+        <v>5</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>39</v>
+      </c>
+      <c r="R37" s="5">
+        <v>7</v>
+      </c>
+      <c r="S37" s="5">
+        <v>3</v>
+      </c>
+      <c r="T37" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="5">
+        <v>3600</v>
+      </c>
+      <c r="C38" s="5">
+        <v>14</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2</v>
+      </c>
+      <c r="I38" s="5">
+        <v>24</v>
+      </c>
+      <c r="J38" s="5">
+        <v>5</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>55</v>
+      </c>
+      <c r="R38" s="5">
+        <v>14</v>
+      </c>
+      <c r="S38" s="5">
+        <v>3</v>
+      </c>
+      <c r="T38" s="5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1900</v>
+      </c>
+      <c r="C39" s="3">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>12</v>
+      </c>
+      <c r="J39" s="3">
+        <v>5</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="4">
+        <v>102</v>
+      </c>
+      <c r="C40" s="4">
+        <v>14</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>24</v>
+      </c>
+      <c r="J40" s="4">
+        <v>5</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L40" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>Availability</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>Type</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>Producers</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2">
-        <v>0.35</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>12</v>
-      </c>
-      <c r="U2">
-        <v>7</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>46</v>
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>12</v>
-      </c>
-      <c r="U3">
-        <v>7</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>12</v>
-      </c>
-      <c r="U4">
-        <v>7</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5">
-        <v>54</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>24</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>6.2</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5">
-        <v>0.4</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>12</v>
-      </c>
-      <c r="U5">
-        <v>7</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6">
-        <v>70</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>24</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>8.1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6">
-        <v>0.5</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>12</v>
-      </c>
-      <c r="U6">
-        <v>7</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
-        <v>85</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>10.3</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7">
-        <v>0.6</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>12</v>
-      </c>
-      <c r="U7">
-        <v>7</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>87.5</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8">
-        <v>6.6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8">
-        <v>0.3</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>87.5</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>24</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9">
-        <v>6.6</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9">
-        <v>0.3</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>90</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>24</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10">
-        <v>6.6</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10">
-        <v>0.3</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>105</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>24</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11">
-        <v>6.6</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>94</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>24</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12">
-        <v>0.3</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>130</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>24</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13" t="s">
-        <v>26</v>
-      </c>
-      <c r="L13">
-        <v>6.6</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13">
-        <v>0.6</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>125</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>24</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14">
-        <v>9.6</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14">
-        <v>0.6</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>125</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>24</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15">
-        <v>9.6</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15">
-        <v>0.6</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>24</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16">
-        <v>9.6</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16">
-        <v>1.05</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>180</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>24</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17">
-        <v>9</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R17">
-        <v>1.05</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>320</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>24</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18">
-        <v>9</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18">
-        <v>1.4</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>320</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>24</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19">
-        <v>23</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19">
-        <v>1.4</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <v>400</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>24</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20" t="s">
-        <v>13</v>
-      </c>
-      <c r="L20">
-        <v>27.6</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20">
-        <v>1.8</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>600</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>24</v>
-      </c>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="K21" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>61</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22">
-        <v>900</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>24</v>
-      </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L22">
-        <v>33.700000000000003</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>61</v>
-      </c>
-      <c r="R22">
-        <v>5</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="T22">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
-        <v>225</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>24</v>
-      </c>
-      <c r="J23">
-        <v>5</v>
-      </c>
-      <c r="K23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>5</v>
-      </c>
-      <c r="R23">
-        <v>0.6</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>210</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>24</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-      <c r="K24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24">
-        <v>5</v>
-      </c>
-      <c r="R24">
-        <v>0.6</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>360</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>24</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25">
-        <v>13.5</v>
-      </c>
-      <c r="R25">
-        <v>1.4</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>400</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26">
-        <v>24</v>
-      </c>
-      <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26">
-        <v>16</v>
-      </c>
-      <c r="R26">
-        <v>2.1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>950</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>24</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>35</v>
-      </c>
-      <c r="R27">
-        <v>4.2</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>1500</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>24</v>
-      </c>
-      <c r="J28">
-        <v>5</v>
-      </c>
-      <c r="K28" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>38</v>
-      </c>
-      <c r="R28">
-        <v>7</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-      <c r="T28">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>2000</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>24</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-      <c r="K29" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>38</v>
-      </c>
-      <c r="R29">
-        <v>7</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="T29">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>1900</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>24</v>
-      </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30" t="s">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>39</v>
-      </c>
-      <c r="R30">
-        <v>7</v>
-      </c>
-      <c r="S30">
-        <v>3</v>
-      </c>
-      <c r="T30">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>3000</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>24</v>
-      </c>
-      <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>55</v>
-      </c>
-      <c r="R31">
-        <v>14</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
-      <c r="T31">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32">
-        <v>1900</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>60</v>
-      </c>
-      <c r="K32" t="s">
-        <v>65</v>
-      </c>
-      <c r="L32">
-        <v>2.8</v>
-      </c>
-      <c r="P32" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>